--- a/Poster/cos_similarity_table_lars_k-svd.xlsx
+++ b/Poster/cos_similarity_table_lars_k-svd.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>gravity</t>
   </si>
@@ -178,6 +178,99 @@
   </si>
   <si>
     <t>populous</t>
+  </si>
+  <si>
+    <t>star|PROPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> star|NOUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> star|VERB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> star|ADJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> star|ENT</t>
+  </si>
+  <si>
+    <t>Julianne_Moore|ENT (0.869)</t>
+  </si>
+  <si>
+    <t>stars|NOUN (0.790)</t>
+  </si>
+  <si>
+    <t>the_Hollywood_Walk_of_Fame|ENT (0.680)</t>
+  </si>
+  <si>
+    <t>Vega|ENT (0.635)</t>
+  </si>
+  <si>
+    <t>nosed_mole|NOUN (0.624)</t>
+  </si>
+  <si>
+    <t>guest|VERB (0.608)</t>
+  </si>
+  <si>
+    <t>Rip_Torn|ENT (0.868)</t>
+  </si>
+  <si>
+    <t>Winona_Ryder|ENT (0.865)</t>
+  </si>
+  <si>
+    <t>Billy_Bob_Thornton|ENT (0.863)</t>
+  </si>
+  <si>
+    <t>Bill_Murray|ENT (0.862)</t>
+  </si>
+  <si>
+    <t>reprise|VERB (0.882)</t>
+  </si>
+  <si>
+    <t>lead_role|NOUN (0.868)</t>
+  </si>
+  <si>
+    <t>feature_film|NOUN (0.852)</t>
+  </si>
+  <si>
+    <t>next_film|NOUN (0.852)</t>
+  </si>
+  <si>
+    <t>third_film|NOUN (0.846)</t>
+  </si>
+  <si>
+    <t>hooker|NOUN (0.846)</t>
+  </si>
+  <si>
+    <t>Dizzy_Dean|ENT (0.845)</t>
+  </si>
+  <si>
+    <t>Brian_Urlacher|ENT (0.841)</t>
+  </si>
+  <si>
+    <t>Derrek_Lee|ENT (0.841)</t>
+  </si>
+  <si>
+    <t>mitt|NOUN (0.838)</t>
+  </si>
+  <si>
+    <t>Swan|ENT (0.784)</t>
+  </si>
+  <si>
+    <t>Jumbo|PROPN (0.760)</t>
+  </si>
+  <si>
+    <t>Triumph|ENT (0.747)</t>
+  </si>
+  <si>
+    <t>Winston|ENT (0.739)</t>
+  </si>
+  <si>
+    <t>Box|ENT (0.736)</t>
   </si>
 </sst>
 </file>
@@ -185,7 +278,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -232,21 +325,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,429 +651,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.61812976881199999</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>0.63868325668699999</v>
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>0.80204776071100004</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>0.77714629429399995</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>0.69245671447900004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.61713952729199995</v>
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>0.63352906747799997</v>
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>0.79748473343000004</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>0.75655730106999997</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4">
-        <v>0.672746261091</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0.61575281076300004</v>
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>0.63041187770200002</v>
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>0.79686486969000003</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>0.71448357325900003</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5">
-        <v>0.57507615744700002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0.54160596864999999</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>0.62729589046500001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>0.79575581635000003</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6">
-        <v>0.70670948035299996</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6">
-        <v>0.56400451649700001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>0.52875716120000005</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>0.59657020984700004</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>0.78593268222199997</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7">
-        <v>0.68705594797000002</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7">
-        <v>0.52857584143199998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>0.714142711052</v>
-      </c>
-      <c r="C10">
-        <v>20003</v>
-      </c>
-      <c r="D10">
-        <v>0.25541319854400002</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10">
-        <v>0.18521641389400001</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0.61256339958700001</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10">
-        <v>0.16481670148499999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0.66716748625699995</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11">
-        <v>0.185966406108</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11">
-        <v>0.16395101153300001</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11">
-        <v>0.61020448650400005</v>
-      </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11">
-        <v>0.156134958702</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>0.63585097533599999</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12">
-        <v>0.17732888780799999</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12">
-        <v>0.15957104918500001</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12">
-        <v>0.60829443724700005</v>
-      </c>
-      <c r="I12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12">
-        <v>0.14088509299300001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13">
-        <v>0.62137791887799998</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13">
-        <v>0.16069442769200001</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13">
-        <v>0.15922329825000001</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13">
-        <v>0.58586139486099997</v>
-      </c>
-      <c r="I13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13">
-        <v>0.13602871816500001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>0.61685472968699995</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14">
-        <v>0.14662608353500001</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14">
-        <v>0.157480891229</v>
-      </c>
-      <c r="G14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>0.56002834787199995</v>
-      </c>
-      <c r="I14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14">
-        <v>0.13141639727500001</v>
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1002,409 +790,409 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>0.714142711052</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>0.66716748625699995</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>0.63585097533599999</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>0.62137791887799998</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <v>0.61685472968699995</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4">
         <v>20003</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>0.25541319854400002</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>0.185966406108</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>0.17732888780799999</v>
       </c>
       <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>0.16069442769200001</v>
       </c>
       <c r="J4" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <v>0.14662608353500001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>0.18521641389400001</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>0.16395101153300001</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>0.15957104918500001</v>
       </c>
       <c r="H5" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <v>0.15922329825000001</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <v>0.157480891229</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>0.61256339958700001</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>0.61020448650400005</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>0.60829443724700005</v>
       </c>
       <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>0.58586139486099997</v>
       </c>
       <c r="J6" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>0.56002834787199995</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>0.16481670148499999</v>
       </c>
       <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>0.156134958702</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>0.14088509299300001</v>
       </c>
       <c r="H7" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>0.13602871816500001</v>
       </c>
       <c r="J7" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <v>0.13141639727500001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>0.61812976881199999</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>0.61713952729199995</v>
       </c>
       <c r="F10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>0.61575281076300004</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>0.54160596864999999</v>
       </c>
       <c r="J10" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>0.52875716120000005</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>0.63868325668699999</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>0.63352906747799997</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>0.63041187770200002</v>
       </c>
       <c r="H11" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>0.62729589046500001</v>
       </c>
       <c r="J11" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <v>0.59657020984700004</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>0.80204776071100004</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>0.79748473343000004</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>0.79686486969000003</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>0.79575581635000003</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <v>0.78593268222199997</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>0.77714629429399995</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>0.75655730106999997</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <v>0.71448357325900003</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <v>0.70670948035299996</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <v>0.68705594797000002</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>0.69245671447900004</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>0.672746261091</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <v>0.57507615744700002</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <v>0.56400451649700001</v>
       </c>
       <c r="J14" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="5">
         <v>0.52857584143199998</v>
       </c>
     </row>
